--- a/Data_frame/balancos_definitivos/RDOR3.xlsx
+++ b/Data_frame/balancos_definitivos/RDOR3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -598,13 +613,22 @@
         <v>92490678.272</v>
       </c>
       <c r="S2" t="n">
-        <v>93329457.152</v>
+        <v>87177306.112</v>
       </c>
       <c r="T2" t="n">
-        <v>92965969.92</v>
+        <v>86735495.168</v>
       </c>
       <c r="U2" t="n">
-        <v>95912255.48800001</v>
+        <v>89713049.59999999</v>
+      </c>
+      <c r="V2" t="n">
+        <v>90342350.848</v>
+      </c>
+      <c r="W2" t="n">
+        <v>91125497.85600001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>95294234.624</v>
       </c>
     </row>
     <row r="3">
@@ -665,13 +689,22 @@
         <v>41677688.832</v>
       </c>
       <c r="S3" t="n">
-        <v>42266882.048</v>
+        <v>41137405.952</v>
       </c>
       <c r="T3" t="n">
-        <v>42077343.744</v>
+        <v>40509157.376</v>
       </c>
       <c r="U3" t="n">
-        <v>44719271.936</v>
+        <v>43092639.744</v>
+      </c>
+      <c r="V3" t="n">
+        <v>43123478.528</v>
+      </c>
+      <c r="W3" t="n">
+        <v>43400142.848</v>
+      </c>
+      <c r="X3" t="n">
+        <v>46428790.784</v>
       </c>
     </row>
     <row r="4">
@@ -740,6 +773,15 @@
       <c r="U4" t="n">
         <v>3408839.936</v>
       </c>
+      <c r="V4" t="n">
+        <v>3267407.872</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2590745.088</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3634786.048</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -807,6 +849,15 @@
       <c r="U5" t="n">
         <v>28227338.24</v>
       </c>
+      <c r="V5" t="n">
+        <v>28463882.24</v>
+      </c>
+      <c r="W5" t="n">
+        <v>28521428.992</v>
+      </c>
+      <c r="X5" t="n">
+        <v>30070859.776</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -866,13 +917,22 @@
         <v>6808566.784</v>
       </c>
       <c r="S6" t="n">
-        <v>9008458.752</v>
+        <v>8418170.880000001</v>
       </c>
       <c r="T6" t="n">
-        <v>7996374.016</v>
+        <v>8923997.184</v>
       </c>
       <c r="U6" t="n">
-        <v>7960280.064</v>
+        <v>8963221.504000001</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8939144.192</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9146103.808</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9604717.568</v>
       </c>
     </row>
     <row r="7">
@@ -941,6 +1001,15 @@
       <c r="U7" t="n">
         <v>702897.024</v>
       </c>
+      <c r="V7" t="n">
+        <v>705896</v>
+      </c>
+      <c r="W7" t="n">
+        <v>695219.008</v>
+      </c>
+      <c r="X7" t="n">
+        <v>722225.024</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1008,6 +1077,15 @@
       <c r="U8" t="n">
         <v>0</v>
       </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1073,7 +1151,16 @@
         <v>869609.9840000001</v>
       </c>
       <c r="U9" t="n">
-        <v>984030.976</v>
+        <v>1059440</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1002563.968</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1446919.936</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1437219.968</v>
       </c>
     </row>
     <row r="10">
@@ -1142,6 +1229,15 @@
       <c r="U10" t="n">
         <v>0</v>
       </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1201,13 +1297,22 @@
         <v>3057296.896</v>
       </c>
       <c r="S11" t="n">
-        <v>1429751.04</v>
+        <v>890564.992</v>
       </c>
       <c r="T11" t="n">
-        <v>3209794.048</v>
+        <v>713985.9840000001</v>
       </c>
       <c r="U11" t="n">
-        <v>3435888.128</v>
+        <v>730905.024</v>
+      </c>
+      <c r="V11" t="n">
+        <v>744587.008</v>
+      </c>
+      <c r="W11" t="n">
+        <v>999731.008</v>
+      </c>
+      <c r="X11" t="n">
+        <v>958982.976</v>
       </c>
     </row>
     <row r="12">
@@ -1268,13 +1373,22 @@
         <v>14457706.496</v>
       </c>
       <c r="S12" t="n">
-        <v>14403266.56</v>
+        <v>12665740.288</v>
       </c>
       <c r="T12" t="n">
-        <v>13948231.68</v>
+        <v>12463505.408</v>
       </c>
       <c r="U12" t="n">
-        <v>14052845.568</v>
+        <v>12530639.872</v>
+      </c>
+      <c r="V12" t="n">
+        <v>12615573.504</v>
+      </c>
+      <c r="W12" t="n">
+        <v>12686837.76</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13401975.808</v>
       </c>
     </row>
     <row r="13">
@@ -1343,6 +1457,15 @@
       <c r="U13" t="n">
         <v>0</v>
       </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1410,6 +1533,15 @@
       <c r="U14" t="n">
         <v>0</v>
       </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1477,6 +1609,15 @@
       <c r="U15" t="n">
         <v>0</v>
       </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1539,9 +1680,18 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1675106.048</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1611,6 +1761,15 @@
       <c r="U17" t="n">
         <v>0</v>
       </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1678,6 +1837,15 @@
       <c r="U18" t="n">
         <v>0</v>
       </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1745,6 +1913,15 @@
       <c r="U19" t="n">
         <v>0</v>
       </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1812,6 +1989,15 @@
       <c r="U20" t="n">
         <v>0</v>
       </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1879,6 +2065,15 @@
       <c r="U21" t="n">
         <v>164803.008</v>
       </c>
+      <c r="V21" t="n">
+        <v>191803.008</v>
+      </c>
+      <c r="W21" t="n">
+        <v>61261</v>
+      </c>
+      <c r="X21" t="n">
+        <v>63817</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1946,6 +2141,15 @@
       <c r="U22" t="n">
         <v>2601691.904</v>
       </c>
+      <c r="V22" t="n">
+        <v>2563867.904</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2553591.04</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2473341.952</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2005,13 +2209,22 @@
         <v>14970846.208</v>
       </c>
       <c r="S23" t="n">
-        <v>15458691.072</v>
+        <v>14414468.096</v>
       </c>
       <c r="T23" t="n">
-        <v>15880213.504</v>
+        <v>14831094.784</v>
       </c>
       <c r="U23" t="n">
-        <v>16169272.32</v>
+        <v>15122865.152</v>
+      </c>
+      <c r="V23" t="n">
+        <v>15589865.472</v>
+      </c>
+      <c r="W23" t="n">
+        <v>16052524.032</v>
+      </c>
+      <c r="X23" t="n">
+        <v>16582073.344</v>
       </c>
     </row>
     <row r="24">
@@ -2072,13 +2285,22 @@
         <v>18831040.512</v>
       </c>
       <c r="S24" t="n">
-        <v>18662672.384</v>
+        <v>16421747.712</v>
       </c>
       <c r="T24" t="n">
-        <v>18507112.448</v>
+        <v>16378669.056</v>
       </c>
       <c r="U24" t="n">
-        <v>18369171.456</v>
+        <v>16365212.672</v>
+      </c>
+      <c r="V24" t="n">
+        <v>16449567.744</v>
+      </c>
+      <c r="W24" t="n">
+        <v>16432394.24</v>
+      </c>
+      <c r="X24" t="n">
+        <v>16408049.664</v>
       </c>
     </row>
     <row r="25">
@@ -2147,6 +2369,15 @@
       <c r="U25" t="n">
         <v>0</v>
       </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2206,13 +2437,22 @@
         <v>92490678.272</v>
       </c>
       <c r="S26" t="n">
-        <v>93329457.152</v>
+        <v>87177306.112</v>
       </c>
       <c r="T26" t="n">
-        <v>92965969.92</v>
+        <v>86735495.168</v>
       </c>
       <c r="U26" t="n">
-        <v>95912255.48800001</v>
+        <v>89713049.59999999</v>
+      </c>
+      <c r="V26" t="n">
+        <v>90342350.848</v>
+      </c>
+      <c r="W26" t="n">
+        <v>91125497.85600001</v>
+      </c>
+      <c r="X26" t="n">
+        <v>95294234.624</v>
       </c>
     </row>
     <row r="27">
@@ -2273,13 +2513,22 @@
         <v>16743801.856</v>
       </c>
       <c r="S27" t="n">
-        <v>16806251.52</v>
+        <v>15017658.368</v>
       </c>
       <c r="T27" t="n">
-        <v>15683524.608</v>
+        <v>13358899.2</v>
       </c>
       <c r="U27" t="n">
-        <v>16552574.976</v>
+        <v>15037739.008</v>
+      </c>
+      <c r="V27" t="n">
+        <v>14237546.496</v>
+      </c>
+      <c r="W27" t="n">
+        <v>14735364.096</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15316438.016</v>
       </c>
     </row>
     <row r="28">
@@ -2348,6 +2597,15 @@
       <c r="U28" t="n">
         <v>1277805.952</v>
       </c>
+      <c r="V28" t="n">
+        <v>1101223.04</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1125195.008</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1144925.056</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2415,6 +2673,15 @@
       <c r="U29" t="n">
         <v>1541869.056</v>
       </c>
+      <c r="V29" t="n">
+        <v>1355666.048</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1480231.936</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1490866.048</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2474,13 +2741,22 @@
         <v>800950.0159999999</v>
       </c>
       <c r="S30" t="n">
-        <v>793977.024</v>
+        <v>781344</v>
       </c>
       <c r="T30" t="n">
-        <v>874787.968</v>
+        <v>859064</v>
       </c>
       <c r="U30" t="n">
-        <v>993782.976</v>
+        <v>1050504</v>
+      </c>
+      <c r="V30" t="n">
+        <v>757932.992</v>
+      </c>
+      <c r="W30" t="n">
+        <v>931022.0159999999</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1006851.008</v>
       </c>
     </row>
     <row r="31">
@@ -2549,6 +2825,15 @@
       <c r="U31" t="n">
         <v>2674760.96</v>
       </c>
+      <c r="V31" t="n">
+        <v>2918435.072</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2547236.096</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2732337.92</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2616,6 +2901,15 @@
       <c r="U32" t="n">
         <v>0</v>
       </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2683,6 +2977,15 @@
       <c r="U33" t="n">
         <v>403710.016</v>
       </c>
+      <c r="V33" t="n">
+        <v>99769</v>
+      </c>
+      <c r="W33" t="n">
+        <v>318511.008</v>
+      </c>
+      <c r="X33" t="n">
+        <v>343792</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2742,13 +3045,22 @@
         <v>8585949.631999999</v>
       </c>
       <c r="S34" t="n">
-        <v>9077100.432</v>
+        <v>7301137.808</v>
       </c>
       <c r="T34" t="n">
-        <v>9623471.960000001</v>
+        <v>7314570.072</v>
       </c>
       <c r="U34" t="n">
-        <v>9660646.335999999</v>
+        <v>8089088.96</v>
+      </c>
+      <c r="V34" t="n">
+        <v>8004520.792</v>
+      </c>
+      <c r="W34" t="n">
+        <v>8333167.712</v>
+      </c>
+      <c r="X34" t="n">
+        <v>8597666.432</v>
       </c>
     </row>
     <row r="35">
@@ -2817,6 +3129,15 @@
       <c r="U35" t="n">
         <v>0</v>
       </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2884,6 +3205,15 @@
       <c r="U36" t="n">
         <v>0</v>
       </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2943,13 +3273,22 @@
         <v>52669906.944</v>
       </c>
       <c r="S37" t="n">
-        <v>53220548.608</v>
+        <v>48974389.248</v>
       </c>
       <c r="T37" t="n">
-        <v>53574561.792</v>
+        <v>50259623.936</v>
       </c>
       <c r="U37" t="n">
-        <v>55303172.096</v>
+        <v>51266412.544</v>
+      </c>
+      <c r="V37" t="n">
+        <v>52269162.496</v>
+      </c>
+      <c r="W37" t="n">
+        <v>51863924.736</v>
+      </c>
+      <c r="X37" t="n">
+        <v>54817587.2</v>
       </c>
     </row>
     <row r="38">
@@ -3018,6 +3357,15 @@
       <c r="U38" t="n">
         <v>31003826.176</v>
       </c>
+      <c r="V38" t="n">
+        <v>31667513.344</v>
+      </c>
+      <c r="W38" t="n">
+        <v>31292612.608</v>
+      </c>
+      <c r="X38" t="n">
+        <v>33536460.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3085,6 +3433,15 @@
       <c r="U39" t="n">
         <v>5241</v>
       </c>
+      <c r="V39" t="n">
+        <v>5179</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2354</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2260</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3144,13 +3501,22 @@
         <v>20132464.64</v>
       </c>
       <c r="S40" t="n">
-        <v>20037593.088</v>
+        <v>16388165.632</v>
       </c>
       <c r="T40" t="n">
-        <v>19807291.392</v>
+        <v>17162512.384</v>
       </c>
       <c r="U40" t="n">
-        <v>20034007.04</v>
+        <v>16709276.672</v>
+      </c>
+      <c r="V40" t="n">
+        <v>17159447.552</v>
+      </c>
+      <c r="W40" t="n">
+        <v>17063067.648</v>
+      </c>
+      <c r="X40" t="n">
+        <v>17703692.288</v>
       </c>
     </row>
     <row r="41">
@@ -3211,13 +3577,22 @@
         <v>1064336</v>
       </c>
       <c r="S41" t="n">
-        <v>1240892.032</v>
+        <v>410732</v>
       </c>
       <c r="T41" t="n">
-        <v>1224893.056</v>
+        <v>321104</v>
       </c>
       <c r="U41" t="n">
-        <v>1267810.048</v>
+        <v>322144.992</v>
+      </c>
+      <c r="V41" t="n">
+        <v>168667.008</v>
+      </c>
+      <c r="W41" t="n">
+        <v>224336.992</v>
+      </c>
+      <c r="X41" t="n">
+        <v>226540.992</v>
       </c>
     </row>
     <row r="42">
@@ -3286,6 +3661,15 @@
       <c r="U42" t="n">
         <v>0</v>
       </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3345,13 +3729,22 @@
         <v>3558744.064</v>
       </c>
       <c r="S43" t="n">
-        <v>3256111.104</v>
+        <v>3489539.072</v>
       </c>
       <c r="T43" t="n">
-        <v>3302414.08</v>
+        <v>3536047.104</v>
       </c>
       <c r="U43" t="n">
-        <v>2992289.024</v>
+        <v>3225922.048</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3268354.048</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3281552.896</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3348634.112</v>
       </c>
     </row>
     <row r="44">
@@ -3420,6 +3813,15 @@
       <c r="U44" t="n">
         <v>0</v>
       </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3487,6 +3889,15 @@
       <c r="U45" t="n">
         <v>0</v>
       </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3554,6 +3965,15 @@
       <c r="U46" t="n">
         <v>1283090.944</v>
       </c>
+      <c r="V46" t="n">
+        <v>1295939.968</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1361133.056</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1357840</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3613,13 +4033,22 @@
         <v>21812039.552</v>
       </c>
       <c r="S47" t="n">
-        <v>22029290.88</v>
+        <v>21911899.52</v>
       </c>
       <c r="T47" t="n">
-        <v>22421454.464</v>
+        <v>21830542.976</v>
       </c>
       <c r="U47" t="n">
-        <v>22773417.472</v>
+        <v>22125809.152</v>
+      </c>
+      <c r="V47" t="n">
+        <v>22539705.984</v>
+      </c>
+      <c r="W47" t="n">
+        <v>23165073.92</v>
+      </c>
+      <c r="X47" t="n">
+        <v>23802368.384</v>
       </c>
     </row>
     <row r="48">
@@ -3688,6 +4117,15 @@
       <c r="U48" t="n">
         <v>15458328.576</v>
       </c>
+      <c r="V48" t="n">
+        <v>15458328.576</v>
+      </c>
+      <c r="W48" t="n">
+        <v>15458328.576</v>
+      </c>
+      <c r="X48" t="n">
+        <v>15458328.576</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3747,13 +4185,22 @@
         <v>4374113.792</v>
       </c>
       <c r="S49" t="n">
-        <v>4368430.08</v>
+        <v>4369076.224</v>
       </c>
       <c r="T49" t="n">
-        <v>4376732.16</v>
+        <v>4377376.768</v>
       </c>
       <c r="U49" t="n">
-        <v>4387974.144</v>
+        <v>4388619.776</v>
+      </c>
+      <c r="V49" t="n">
+        <v>4399361.024</v>
+      </c>
+      <c r="W49" t="n">
+        <v>4400059.904</v>
+      </c>
+      <c r="X49" t="n">
+        <v>4178742.016</v>
       </c>
     </row>
     <row r="50">
@@ -3822,6 +4269,15 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3881,13 +4337,22 @@
         <v>1669513.984</v>
       </c>
       <c r="S51" t="n">
-        <v>1669513.984</v>
+        <v>1300278.016</v>
       </c>
       <c r="T51" t="n">
-        <v>1669513.984</v>
+        <v>1300278.016</v>
       </c>
       <c r="U51" t="n">
-        <v>1253225.984</v>
+        <v>883990.0159999999</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2508423.936</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2208423.936</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1883490.048</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +4413,22 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>287432.992</v>
+        <v>298692</v>
       </c>
       <c r="T52" t="n">
-        <v>695961.9840000001</v>
+        <v>590075.008</v>
       </c>
       <c r="U52" t="n">
-        <v>1449806.976</v>
+        <v>1272566.016</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>804590.0159999999</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1776242.944</v>
       </c>
     </row>
     <row r="53">
@@ -4023,6 +4497,15 @@
       <c r="U53" t="n">
         <v>0</v>
       </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4090,6 +4573,15 @@
       <c r="U54" t="n">
         <v>0</v>
       </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4149,13 +4641,22 @@
         <v>310081.984</v>
       </c>
       <c r="S55" t="n">
-        <v>245586</v>
+        <v>485523.008</v>
       </c>
       <c r="T55" t="n">
-        <v>220919.008</v>
+        <v>104485</v>
       </c>
       <c r="U55" t="n">
-        <v>224082</v>
+        <v>122305</v>
+      </c>
+      <c r="V55" t="n">
+        <v>173592</v>
+      </c>
+      <c r="W55" t="n">
+        <v>293670.016</v>
+      </c>
+      <c r="X55" t="n">
+        <v>505564</v>
       </c>
     </row>
     <row r="56">
@@ -4222,6 +4723,15 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4251,6 +4761,9 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4278,6 +4791,9 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4335,13 +4851,22 @@
         <v>5751699.456</v>
       </c>
       <c r="S59" t="n">
-        <v>11315223.552</v>
+        <v>11249972.224</v>
       </c>
       <c r="T59" t="n">
-        <v>11678701.568</v>
+        <v>11581049.856</v>
       </c>
       <c r="U59" t="n">
-        <v>11812333.568</v>
+        <v>11835087.872</v>
+      </c>
+      <c r="V59" t="n">
+        <v>11842450.432</v>
+      </c>
+      <c r="W59" t="n">
+        <v>12195028.992</v>
+      </c>
+      <c r="X59" t="n">
+        <v>12504108.032</v>
       </c>
     </row>
     <row r="60">
@@ -4400,13 +4925,22 @@
         <v>-4526063.104</v>
       </c>
       <c r="S60" t="n">
-        <v>-9558160.384</v>
+        <v>-9657407.488</v>
       </c>
       <c r="T60" t="n">
-        <v>-9638680.575999999</v>
+        <v>-9681545.216</v>
       </c>
       <c r="U60" t="n">
-        <v>-9806872.575999999</v>
+        <v>-9969981.439999999</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-9628141.568</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-9969805.312000001</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-10107579.392</v>
       </c>
     </row>
     <row r="61">
@@ -4465,13 +4999,22 @@
         <v>1225634.176</v>
       </c>
       <c r="S61" t="n">
-        <v>1757063.936</v>
+        <v>1592564.992</v>
       </c>
       <c r="T61" t="n">
-        <v>2040020.992</v>
+        <v>1899505.024</v>
       </c>
       <c r="U61" t="n">
-        <v>2005460.992</v>
+        <v>1865106.944</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2214305.28</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2225223.936</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2396528.896</v>
       </c>
     </row>
     <row r="62">
@@ -4530,13 +5073,22 @@
         <v>-21770</v>
       </c>
       <c r="S62" t="n">
-        <v>-18764</v>
+        <v>-12235</v>
       </c>
       <c r="T62" t="n">
-        <v>-13219</v>
+        <v>-14438</v>
       </c>
       <c r="U62" t="n">
-        <v>-141046</v>
+        <v>-144378</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-30896.008</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-18477</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-7243</v>
       </c>
     </row>
     <row r="63">
@@ -4595,13 +5147,22 @@
         <v>-232364</v>
       </c>
       <c r="S63" t="n">
-        <v>-581872</v>
+        <v>-339862.016</v>
       </c>
       <c r="T63" t="n">
-        <v>-650068.992</v>
+        <v>-430521.984</v>
       </c>
       <c r="U63" t="n">
-        <v>-340824</v>
+        <v>-116450</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-428123.072</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-430796</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-530023.008</v>
       </c>
     </row>
     <row r="64">
@@ -4668,6 +5229,15 @@
       <c r="U64" t="n">
         <v>0</v>
       </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4725,12 +5295,21 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>-135398</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>-160032.992</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4790,13 +5369,22 @@
         <v>-102471</v>
       </c>
       <c r="S66" t="n">
-        <v>-136055.008</v>
+        <v>-98197</v>
       </c>
       <c r="T66" t="n">
-        <v>-102457</v>
+        <v>-67924</v>
       </c>
       <c r="U66" t="n">
-        <v>-118396</v>
+        <v>-123586</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-193926.976</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-80916</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-76291</v>
       </c>
     </row>
     <row r="67">
@@ -4863,6 +5451,15 @@
       <c r="U67" t="n">
         <v>8851</v>
       </c>
+      <c r="V67" t="n">
+        <v>-3495</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-9736</v>
+      </c>
+      <c r="X67" t="n">
+        <v>23903</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4920,13 +5517,22 @@
         <v>-701544.96</v>
       </c>
       <c r="S68" t="n">
-        <v>-538780.032</v>
+        <v>-783673.9840000001</v>
       </c>
       <c r="T68" t="n">
-        <v>-505508</v>
+        <v>-978507.008</v>
       </c>
       <c r="U68" t="n">
-        <v>-433308</v>
+        <v>-641883.008</v>
+      </c>
+      <c r="V68" t="n">
+        <v>-610863.1040000001</v>
+      </c>
+      <c r="W68" t="n">
+        <v>-672545.9840000001</v>
+      </c>
+      <c r="X68" t="n">
+        <v>-588060.032</v>
       </c>
     </row>
     <row r="69">
@@ -4985,13 +5591,22 @@
         <v>1422548.992</v>
       </c>
       <c r="S69" t="n">
-        <v>2068291.968</v>
+        <v>2071766.016</v>
       </c>
       <c r="T69" t="n">
-        <v>2800098.048</v>
+        <v>2799260.928</v>
       </c>
       <c r="U69" t="n">
-        <v>1956539.008</v>
+        <v>1956994.944</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2489446.4</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1424755.968</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2046883.968</v>
       </c>
     </row>
     <row r="70">
@@ -5050,13 +5665,22 @@
         <v>-2124094.336</v>
       </c>
       <c r="S70" t="n">
-        <v>-2607072</v>
+        <v>-2855439.872</v>
       </c>
       <c r="T70" t="n">
-        <v>-3305605.888</v>
+        <v>-3777767.936</v>
       </c>
       <c r="U70" t="n">
-        <v>-2389847.04</v>
+        <v>-2598877.952</v>
+      </c>
+      <c r="V70" t="n">
+        <v>-3100308.736</v>
+      </c>
+      <c r="W70" t="n">
+        <v>-2097302.016</v>
+      </c>
+      <c r="X70" t="n">
+        <v>-2634944</v>
       </c>
     </row>
     <row r="71">
@@ -5085,6 +5709,9 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5112,6 +5739,9 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5139,6 +5769,9 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5196,13 +5829,22 @@
         <v>176969.984</v>
       </c>
       <c r="S74" t="n">
-        <v>327528.992</v>
+        <v>339931.008</v>
       </c>
       <c r="T74" t="n">
-        <v>616371.968</v>
+        <v>415751.008</v>
       </c>
       <c r="U74" t="n">
-        <v>980737.9840000001</v>
+        <v>847660.992</v>
+      </c>
+      <c r="V74" t="n">
+        <v>947000.96</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1012753.024</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1218814.976</v>
       </c>
     </row>
     <row r="75">
@@ -5261,12 +5903,21 @@
         <v>-273916.992</v>
       </c>
       <c r="S75" t="n">
-        <v>-129565</v>
+        <v>-171720</v>
       </c>
       <c r="T75" t="n">
         <v>0</v>
       </c>
       <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>-530715.008</v>
+      </c>
+      <c r="W75" t="n">
+        <v>-313168.992</v>
+      </c>
+      <c r="X75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5326,13 +5977,22 @@
         <v>379408</v>
       </c>
       <c r="S76" t="n">
-        <v>105844</v>
+        <v>146856</v>
       </c>
       <c r="T76" t="n">
-        <v>-181014</v>
+        <v>-97538</v>
       </c>
       <c r="U76" t="n">
-        <v>-220435.008</v>
+        <v>-158712.992</v>
+      </c>
+      <c r="V76" t="n">
+        <v>375187.008</v>
+      </c>
+      <c r="W76" t="n">
+        <v>135896.992</v>
+      </c>
+      <c r="X76" t="n">
+        <v>-223270</v>
       </c>
     </row>
     <row r="77">
@@ -5361,6 +6021,9 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5388,6 +6051,9 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5453,6 +6119,15 @@
       <c r="U79" t="n">
         <v>-6458</v>
       </c>
+      <c r="V79" t="n">
+        <v>-23317</v>
+      </c>
+      <c r="W79" t="n">
+        <v>-30891</v>
+      </c>
+      <c r="X79" t="n">
+        <v>-23892</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5510,13 +6185,22 @@
         <v>229695.984</v>
       </c>
       <c r="S80" t="n">
-        <v>287432.992</v>
+        <v>298692</v>
       </c>
       <c r="T80" t="n">
-        <v>408528.992</v>
+        <v>291384</v>
       </c>
       <c r="U80" t="n">
-        <v>753844.992</v>
+        <v>682489.9840000001</v>
+      </c>
+      <c r="V80" t="n">
+        <v>768156.032</v>
+      </c>
+      <c r="W80" t="n">
+        <v>804590.0159999999</v>
+      </c>
+      <c r="X80" t="n">
+        <v>971652.992</v>
       </c>
     </row>
   </sheetData>
